--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>192.30027</v>
+        <v>9.490176666666667</v>
       </c>
       <c r="H2">
-        <v>576.90081</v>
+        <v>28.47053</v>
       </c>
       <c r="I2">
-        <v>0.7642743413703218</v>
+        <v>0.1379356457842124</v>
       </c>
       <c r="J2">
-        <v>0.7642743413703219</v>
+        <v>0.1379356457842124</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.07422366666667</v>
+        <v>0.2649023333333334</v>
       </c>
       <c r="N2">
-        <v>66.22267100000001</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="O2">
-        <v>0.8730897844203874</v>
+        <v>0.07626253349831308</v>
       </c>
       <c r="P2">
-        <v>0.8730897844203873</v>
+        <v>0.07626253349831306</v>
       </c>
       <c r="Q2">
-        <v>4244.87917114039</v>
+        <v>2.513969942745556</v>
       </c>
       <c r="R2">
-        <v>38203.91254026351</v>
+        <v>22.62572948471</v>
       </c>
       <c r="S2">
-        <v>0.6672801199450479</v>
+        <v>0.01051932180722994</v>
       </c>
       <c r="T2">
-        <v>0.6672801199450479</v>
+        <v>0.01051932180722994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>192.30027</v>
+        <v>9.490176666666667</v>
       </c>
       <c r="H3">
-        <v>576.90081</v>
+        <v>28.47053</v>
       </c>
       <c r="I3">
-        <v>0.7642743413703218</v>
+        <v>0.1379356457842124</v>
       </c>
       <c r="J3">
-        <v>0.7642743413703219</v>
+        <v>0.1379356457842124</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.3705</v>
       </c>
       <c r="O3">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="P3">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="Q3">
-        <v>280.149443345</v>
+        <v>13.82560570722222</v>
       </c>
       <c r="R3">
-        <v>2521.344990105</v>
+        <v>124.430451365</v>
       </c>
       <c r="S3">
-        <v>0.04403851007791321</v>
+        <v>0.05785112747024809</v>
       </c>
       <c r="T3">
-        <v>0.04403851007791321</v>
+        <v>0.05785112747024809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>192.30027</v>
+        <v>9.490176666666667</v>
       </c>
       <c r="H4">
-        <v>576.90081</v>
+        <v>28.47053</v>
       </c>
       <c r="I4">
-        <v>0.7642743413703218</v>
+        <v>0.1379356457842124</v>
       </c>
       <c r="J4">
-        <v>0.7642743413703219</v>
+        <v>0.1379356457842124</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>1.751822333333333</v>
       </c>
       <c r="N4">
-        <v>5.255466999999999</v>
+        <v>5.255467</v>
       </c>
       <c r="O4">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185624</v>
       </c>
       <c r="P4">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185623</v>
       </c>
       <c r="Q4">
-        <v>336.87590769203</v>
+        <v>16.62510343194556</v>
       </c>
       <c r="R4">
-        <v>3031.88316922827</v>
+        <v>149.62593088751</v>
       </c>
       <c r="S4">
-        <v>0.05295571134736079</v>
+        <v>0.06956519650673433</v>
       </c>
       <c r="T4">
-        <v>0.0529557113473608</v>
+        <v>0.06956519650673432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>159.25626</v>
       </c>
       <c r="I5">
-        <v>0.210981629962698</v>
+        <v>0.7715738016917292</v>
       </c>
       <c r="J5">
-        <v>0.210981629962698</v>
+        <v>0.7715738016917292</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.07422366666667</v>
+        <v>0.2649023333333334</v>
       </c>
       <c r="N5">
-        <v>66.22267100000001</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="O5">
-        <v>0.8730897844203874</v>
+        <v>0.07626253349831308</v>
       </c>
       <c r="P5">
-        <v>0.8730897844203873</v>
+        <v>0.07626253349831306</v>
       </c>
       <c r="Q5">
-        <v>1171.81943451894</v>
+        <v>14.06245162398</v>
       </c>
       <c r="R5">
-        <v>10546.37491067046</v>
+        <v>126.56206461582</v>
       </c>
       <c r="S5">
-        <v>0.1842059058207939</v>
+        <v>0.05884217289793627</v>
       </c>
       <c r="T5">
-        <v>0.1842059058207939</v>
+        <v>0.05884217289793626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>159.25626</v>
       </c>
       <c r="I6">
-        <v>0.210981629962698</v>
+        <v>0.7715738016917292</v>
       </c>
       <c r="J6">
-        <v>0.210981629962698</v>
+        <v>0.7715738016917292</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.3705</v>
       </c>
       <c r="O6">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="P6">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="Q6">
         <v>77.33660936999999</v>
@@ -818,10 +818,10 @@
         <v>696.0294843299999</v>
       </c>
       <c r="S6">
-        <v>0.01215704379229554</v>
+        <v>0.3236031853883638</v>
       </c>
       <c r="T6">
-        <v>0.01215704379229554</v>
+        <v>0.3236031853883638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>159.25626</v>
       </c>
       <c r="I7">
-        <v>0.210981629962698</v>
+        <v>0.7715738016917292</v>
       </c>
       <c r="J7">
-        <v>0.210981629962698</v>
+        <v>0.7715738016917292</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>1.751822333333333</v>
       </c>
       <c r="N7">
-        <v>5.255466999999999</v>
+        <v>5.255467</v>
       </c>
       <c r="O7">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185624</v>
       </c>
       <c r="P7">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185623</v>
       </c>
       <c r="Q7">
-        <v>92.99622433037999</v>
+        <v>92.99622433038</v>
       </c>
       <c r="R7">
-        <v>836.9660189734199</v>
+        <v>836.9660189734201</v>
       </c>
       <c r="S7">
-        <v>0.01461868034960852</v>
+        <v>0.3891284434054292</v>
       </c>
       <c r="T7">
-        <v>0.01461868034960852</v>
+        <v>0.3891284434054291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>18.677652</v>
       </c>
       <c r="I8">
-        <v>0.02474402866698016</v>
+        <v>0.09049055252405858</v>
       </c>
       <c r="J8">
-        <v>0.02474402866698016</v>
+        <v>0.09049055252405858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.07422366666667</v>
+        <v>0.2649023333333334</v>
       </c>
       <c r="N8">
-        <v>66.22267100000001</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="O8">
-        <v>0.8730897844203874</v>
+        <v>0.07626253349831308</v>
       </c>
       <c r="P8">
-        <v>0.8730897844203873</v>
+        <v>0.07626253349831306</v>
       </c>
       <c r="Q8">
-        <v>137.4315559387213</v>
+        <v>1.649251198662667</v>
       </c>
       <c r="R8">
-        <v>1236.884003448492</v>
+        <v>14.843260787964</v>
       </c>
       <c r="S8">
-        <v>0.0216037586545456</v>
+        <v>0.006901038793146876</v>
       </c>
       <c r="T8">
-        <v>0.0216037586545456</v>
+        <v>0.006901038793146875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>18.677652</v>
       </c>
       <c r="I9">
-        <v>0.02474402866698016</v>
+        <v>0.09049055252405858</v>
       </c>
       <c r="J9">
-        <v>0.02474402866698016</v>
+        <v>0.09049055252405858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.3705</v>
       </c>
       <c r="O9">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="P9">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="Q9">
         <v>9.070075340666667</v>
@@ -1004,10 +1004,10 @@
         <v>81.630678066</v>
       </c>
       <c r="S9">
-        <v>0.00142578403700587</v>
+        <v>0.03795233972451283</v>
       </c>
       <c r="T9">
-        <v>0.001425784037005869</v>
+        <v>0.03795233972451283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>18.677652</v>
       </c>
       <c r="I10">
-        <v>0.02474402866698016</v>
+        <v>0.09049055252405858</v>
       </c>
       <c r="J10">
-        <v>0.02474402866698016</v>
+        <v>0.09049055252405858</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>1.751822333333333</v>
       </c>
       <c r="N10">
-        <v>5.255466999999999</v>
+        <v>5.255467</v>
       </c>
       <c r="O10">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185624</v>
       </c>
       <c r="P10">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185623</v>
       </c>
       <c r="Q10">
         <v>10.90664263594267</v>
       </c>
       <c r="R10">
-        <v>98.159783723484</v>
+        <v>98.15978372348401</v>
       </c>
       <c r="S10">
-        <v>0.001714485975428698</v>
+        <v>0.04563717400639888</v>
       </c>
       <c r="T10">
-        <v>0.001714485975428698</v>
+        <v>0.04563717400639887</v>
       </c>
     </row>
   </sheetData>
